--- a/data_year/zb/农业/果园面积.xlsx
+++ b/data_year/zb/农业/果园面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,517 +468,282 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8931.5826</v>
+        <v>10681.01679008</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.778</v>
+        <v>2025.35489666849</v>
       </c>
       <c r="D2" t="n">
-        <v>1014.64093333333</v>
+        <v>970.272275240828</v>
       </c>
       <c r="E2" t="n">
-        <v>2254.13426666667</v>
+        <v>1930.27225977904</v>
       </c>
       <c r="F2" t="n">
-        <v>282.9728</v>
+        <v>513.168351046945</v>
       </c>
       <c r="G2" t="n">
-        <v>249.1866</v>
+        <v>333.78131372806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9042.5538</v>
+        <v>10808.0635307929</v>
       </c>
       <c r="C3" t="n">
-        <v>1323.68373333333</v>
+        <v>2077.20754434427</v>
       </c>
       <c r="D3" t="n">
-        <v>1026.45706666667</v>
+        <v>975.53083239343</v>
       </c>
       <c r="E3" t="n">
-        <v>2066.21726666667</v>
+        <v>1945.74567038338</v>
       </c>
       <c r="F3" t="n">
-        <v>334.377</v>
+        <v>550.284839007186</v>
       </c>
       <c r="G3" t="n">
-        <v>244.9818</v>
+        <v>354.66766116768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9097.865066666671</v>
+        <v>10989.700889818</v>
       </c>
       <c r="C4" t="n">
-        <v>1404.52706666667</v>
+        <v>2111.71988958232</v>
       </c>
       <c r="D4" t="n">
-        <v>1042.26173333333</v>
+        <v>969.721311102982</v>
       </c>
       <c r="E4" t="n">
-        <v>1938.30666666667</v>
+        <v>1976.41975052307</v>
       </c>
       <c r="F4" t="n">
-        <v>392.334666666667</v>
+        <v>612.753800552223</v>
       </c>
       <c r="G4" t="n">
-        <v>247.938266666667</v>
+        <v>357.470053709882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9436.518</v>
+        <v>11043.3332896941</v>
       </c>
       <c r="C5" t="n">
-        <v>1505.72533333333</v>
+        <v>2175.94572561229</v>
       </c>
       <c r="D5" t="n">
-        <v>1061.509</v>
+        <v>979.6150744390389</v>
       </c>
       <c r="E5" t="n">
-        <v>1900.371</v>
+        <v>1967.08366442982</v>
       </c>
       <c r="F5" t="n">
-        <v>420.834</v>
+        <v>646.5696061206301</v>
       </c>
       <c r="G5" t="n">
-        <v>255.526</v>
+        <v>364.371618517604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9768.18</v>
+        <v>11607.6573972988</v>
       </c>
       <c r="C6" t="n">
-        <v>1627.23</v>
+        <v>2160.71599055654</v>
       </c>
       <c r="D6" t="n">
-        <v>1078.6</v>
+        <v>964.239052685255</v>
       </c>
       <c r="E6" t="n">
-        <v>1876.6</v>
+        <v>1974.06429135356</v>
       </c>
       <c r="F6" t="n">
-        <v>413.5</v>
+        <v>689.0544503411591</v>
       </c>
       <c r="G6" t="n">
-        <v>264.42</v>
+        <v>365.469193732706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10034.7984</v>
+        <v>11212.1973935003</v>
       </c>
       <c r="C7" t="n">
-        <v>1717.013</v>
+        <v>2229.7979412904</v>
       </c>
       <c r="D7" t="n">
-        <v>1112.04166666667</v>
+        <v>974.165714746823</v>
       </c>
       <c r="E7" t="n">
-        <v>1890.366</v>
+        <v>1983.02311590297</v>
       </c>
       <c r="F7" t="n">
-        <v>407.919333333333</v>
+        <v>716.405070218249</v>
       </c>
       <c r="G7" t="n">
-        <v>276.347666666667</v>
+        <v>355.387596754036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10122.5560666667</v>
+        <v>10916.6447397619</v>
       </c>
       <c r="C8" t="n">
-        <v>1814.59426666667</v>
+        <v>2327.55524532062</v>
       </c>
       <c r="D8" t="n">
-        <v>1087.1078</v>
+        <v>930.815100529628</v>
       </c>
       <c r="E8" t="n">
-        <v>1898.877</v>
+        <v>1945.52980040478</v>
       </c>
       <c r="F8" t="n">
-        <v>418.728</v>
+        <v>716.213324403682</v>
       </c>
       <c r="G8" t="n">
-        <v>285.649533333333</v>
+        <v>350.101414666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10119.4961674601</v>
+        <v>11148.6192273126</v>
       </c>
       <c r="C9" t="n">
-        <v>1836.95871701402</v>
+        <v>2439.02464764942</v>
       </c>
       <c r="D9" t="n">
-        <v>1019.72230876826</v>
+        <v>922.782056121736</v>
       </c>
       <c r="E9" t="n">
-        <v>1873.26434999701</v>
+        <v>1946.94700858682</v>
       </c>
       <c r="F9" t="n">
-        <v>427.281310404659</v>
+        <v>706.5451441553161</v>
       </c>
       <c r="G9" t="n">
-        <v>302.117357316502</v>
+        <v>351.034114627316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10220.7089032711</v>
+        <v>11874.8513816078</v>
       </c>
       <c r="C10" t="n">
-        <v>1900.74734379733</v>
+        <v>2486.68536133333</v>
       </c>
       <c r="D10" t="n">
-        <v>1011.22316200698</v>
+        <v>943.423044173129</v>
       </c>
       <c r="E10" t="n">
-        <v>1853.65845609088</v>
+        <v>1938.57262521214</v>
       </c>
       <c r="F10" t="n">
-        <v>433.067241056697</v>
+        <v>725.1044896168841</v>
       </c>
       <c r="G10" t="n">
-        <v>309.419644937576</v>
+        <v>331.895763333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10454.3948772358</v>
+        <v>12276.6764353845</v>
       </c>
       <c r="C11" t="n">
-        <v>2000.23350390018</v>
+        <v>2617.3</v>
       </c>
       <c r="D11" t="n">
-        <v>994.799271759776</v>
+        <v>940.7</v>
       </c>
       <c r="E11" t="n">
-        <v>1882.36916604491</v>
+        <v>1978.1</v>
       </c>
       <c r="F11" t="n">
-        <v>465.518976689245</v>
+        <v>726.2</v>
       </c>
       <c r="G11" t="n">
-        <v>320.858453345546</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10681.01679008</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2025.35489666849</v>
-      </c>
-      <c r="D12" t="n">
-        <v>970.272275240828</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1930.27225977904</v>
-      </c>
-      <c r="F12" t="n">
-        <v>513.168351046945</v>
-      </c>
-      <c r="G12" t="n">
-        <v>333.78131372806</v>
-      </c>
+        <v>12646.2835697</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10808.0635307929</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2077.20754434427</v>
-      </c>
-      <c r="D13" t="n">
-        <v>975.53083239343</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1945.74567038338</v>
-      </c>
-      <c r="F13" t="n">
-        <v>550.284839007186</v>
-      </c>
-      <c r="G13" t="n">
-        <v>354.66766116768</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10989.700889818</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2111.71988958232</v>
-      </c>
-      <c r="D14" t="n">
-        <v>969.721311102982</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1976.41975052307</v>
-      </c>
-      <c r="F14" t="n">
-        <v>612.753800552223</v>
-      </c>
-      <c r="G14" t="n">
-        <v>357.470053709882</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11043.3332896941</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2175.94572561229</v>
-      </c>
-      <c r="D15" t="n">
-        <v>979.6150744390389</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1967.08366442982</v>
-      </c>
-      <c r="F15" t="n">
-        <v>646.5696061206301</v>
-      </c>
-      <c r="G15" t="n">
-        <v>364.371618517604</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11607.6573972988</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2160.71599055654</v>
-      </c>
-      <c r="D16" t="n">
-        <v>964.239052685255</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1974.06429135356</v>
-      </c>
-      <c r="F16" t="n">
-        <v>689.0544503411591</v>
-      </c>
-      <c r="G16" t="n">
-        <v>365.469193732706</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11212.1973935003</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2229.7979412904</v>
-      </c>
-      <c r="D17" t="n">
-        <v>974.165714746823</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1983.02311590297</v>
-      </c>
-      <c r="F17" t="n">
-        <v>716.405070218249</v>
-      </c>
-      <c r="G17" t="n">
-        <v>355.387596754036</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10916.6447397619</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2327.55524532062</v>
-      </c>
-      <c r="D18" t="n">
-        <v>930.815100529628</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1945.52980040478</v>
-      </c>
-      <c r="F18" t="n">
-        <v>716.213324403682</v>
-      </c>
-      <c r="G18" t="n">
-        <v>350.101414666667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11148.6192273126</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2439.02464764942</v>
-      </c>
-      <c r="D19" t="n">
-        <v>922.782056121736</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1946.94700858682</v>
-      </c>
-      <c r="F19" t="n">
-        <v>706.5451441553161</v>
-      </c>
-      <c r="G19" t="n">
-        <v>351.034114627316</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11874.8513816078</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2486.68536133333</v>
-      </c>
-      <c r="D20" t="n">
-        <v>943.423044173129</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1938.57262521214</v>
-      </c>
-      <c r="F20" t="n">
-        <v>725.1044896168841</v>
-      </c>
-      <c r="G20" t="n">
-        <v>331.895763333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>12276.6764353845</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2617.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>940.7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1978.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>726.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>330.3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>12646.2835697</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>12807.99146268</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
